--- a/app/spider_591/rental_591_params_detail/rental_591_params_detail.xlsx
+++ b/app/spider_591/rental_591_params_detail/rental_591_params_detail.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlep/Desktop/數據分析/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/littlep/Desktop/數據分析/rental_591_analize/app/spider_591/rental_591_params_detail/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9806BD49-7D1C-4740-89FC-9A197364064E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9C3425-C53A-B146-8AE2-071A3FEF5026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="520" windowWidth="16780" windowHeight="19020" activeTab="3" xr2:uid="{EF95797C-215C-B54A-AB0B-1DB214000401}"/>
+    <workbookView xWindow="20" yWindow="520" windowWidth="16780" windowHeight="19020" firstSheet="2" activeTab="2" xr2:uid="{EF95797C-215C-B54A-AB0B-1DB214000401}"/>
   </bookViews>
   <sheets>
     <sheet name="區域 section" sheetId="1" r:id="rId1"/>
@@ -269,112 +269,113 @@
     <t>電梯大樓</t>
   </si>
   <si>
+    <t>別墅</t>
+  </si>
+  <si>
+    <t>坪數</t>
+  </si>
+  <si>
+    <t>multiArea:</t>
+  </si>
+  <si>
+    <t>10坪以下</t>
+  </si>
+  <si>
+    <t>0_10</t>
+  </si>
+  <si>
+    <t>10-20坪</t>
+  </si>
+  <si>
+    <t>10_20</t>
+  </si>
+  <si>
+    <t>20-30坪</t>
+  </si>
+  <si>
+    <t>20_30</t>
+  </si>
+  <si>
+    <t>30-40坪</t>
+  </si>
+  <si>
+    <t>30_40</t>
+  </si>
+  <si>
+    <t>40-50坪</t>
+  </si>
+  <si>
+    <t>40_50</t>
+  </si>
+  <si>
+    <t>50坪以上</t>
+  </si>
+  <si>
+    <t>50_</t>
+  </si>
+  <si>
+    <t>樓層</t>
+  </si>
+  <si>
+    <t>multiFloor:</t>
+  </si>
+  <si>
+    <t>1層</t>
+  </si>
+  <si>
+    <t>0_1</t>
+  </si>
+  <si>
+    <t>2-6層</t>
+  </si>
+  <si>
+    <t>2_6</t>
+  </si>
+  <si>
+    <t>6-12層</t>
+  </si>
+  <si>
+    <t>6_12</t>
+  </si>
+  <si>
+    <t>12層以上</t>
+  </si>
+  <si>
+    <t>12_</t>
+  </si>
+  <si>
+    <t>須知</t>
+  </si>
+  <si>
+    <t>multiNotice:</t>
+  </si>
+  <si>
+    <t>男女皆可</t>
+  </si>
+  <si>
+    <t>all_sex</t>
+  </si>
+  <si>
+    <t>限男生</t>
+  </si>
+  <si>
+    <t>boy</t>
+  </si>
+  <si>
+    <t>限女生</t>
+  </si>
+  <si>
+    <t>girl</t>
+  </si>
+  <si>
+    <t>排除頂樓加蓋</t>
+  </si>
+  <si>
+    <t>not_cover</t>
+  </si>
+  <si>
     <t>透天厝</t>
-  </si>
-  <si>
-    <t>別墅</t>
-  </si>
-  <si>
-    <t>坪數</t>
-  </si>
-  <si>
-    <t>multiArea:</t>
-  </si>
-  <si>
-    <t>10坪以下</t>
-  </si>
-  <si>
-    <t>0_10</t>
-  </si>
-  <si>
-    <t>10-20坪</t>
-  </si>
-  <si>
-    <t>10_20</t>
-  </si>
-  <si>
-    <t>20-30坪</t>
-  </si>
-  <si>
-    <t>20_30</t>
-  </si>
-  <si>
-    <t>30-40坪</t>
-  </si>
-  <si>
-    <t>30_40</t>
-  </si>
-  <si>
-    <t>40-50坪</t>
-  </si>
-  <si>
-    <t>40_50</t>
-  </si>
-  <si>
-    <t>50坪以上</t>
-  </si>
-  <si>
-    <t>50_</t>
-  </si>
-  <si>
-    <t>樓層</t>
-  </si>
-  <si>
-    <t>multiFloor:</t>
-  </si>
-  <si>
-    <t>1層</t>
-  </si>
-  <si>
-    <t>0_1</t>
-  </si>
-  <si>
-    <t>2-6層</t>
-  </si>
-  <si>
-    <t>2_6</t>
-  </si>
-  <si>
-    <t>6-12層</t>
-  </si>
-  <si>
-    <t>6_12</t>
-  </si>
-  <si>
-    <t>12層以上</t>
-  </si>
-  <si>
-    <t>12_</t>
-  </si>
-  <si>
-    <t>須知</t>
-  </si>
-  <si>
-    <t>multiNotice:</t>
-  </si>
-  <si>
-    <t>男女皆可</t>
-  </si>
-  <si>
-    <t>all_sex</t>
-  </si>
-  <si>
-    <t>限男生</t>
-  </si>
-  <si>
-    <t>boy</t>
-  </si>
-  <si>
-    <t>限女生</t>
-  </si>
-  <si>
-    <t>girl</t>
-  </si>
-  <si>
-    <t>排除頂樓加蓋</t>
-  </si>
-  <si>
-    <t>not_cover</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -741,7 +742,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J39" sqref="J39"/>
+      <selection activeCell="A2" sqref="A2:A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1069,7 +1070,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91975B5F-0B08-2345-B754-7934AA34AB79}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1149,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A127B9-491C-2342-A5BF-7C73DAAE314A}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1181,7 +1182,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1189,7 +1190,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1213,42 +1214,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" t="s">
         <v>90</v>
-      </c>
-      <c r="B1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B2" t="s">
         <v>92</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" t="s">
         <v>94</v>
-      </c>
-      <c r="B3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" t="s">
         <v>96</v>
-      </c>
-      <c r="B4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1269,58 +1270,58 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B1" t="s">
         <v>66</v>
-      </c>
-      <c r="B1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" t="s">
         <v>68</v>
-      </c>
-      <c r="B2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" t="s">
         <v>70</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B4" t="s">
         <v>72</v>
-      </c>
-      <c r="B4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" t="s">
         <v>74</v>
-      </c>
-      <c r="B5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s">
         <v>76</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B7" t="s">
         <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1397,42 +1398,42 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" t="s">
         <v>80</v>
-      </c>
-      <c r="B1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" t="s">
         <v>82</v>
-      </c>
-      <c r="B2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" t="s">
         <v>84</v>
-      </c>
-      <c r="B3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
         <v>86</v>
-      </c>
-      <c r="B4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
-      </c>
-      <c r="B5" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
